--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ifnk-Ifnar2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ifnk-Ifnar2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,25 +76,25 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Ifnk</t>
+  </si>
+  <si>
+    <t>Ifnar2</t>
+  </si>
+  <si>
     <t>ECs</t>
   </si>
   <si>
-    <t>Inflammatory-Mac</t>
+    <t>FAPs</t>
   </si>
   <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Ifnk</t>
-  </si>
-  <si>
-    <t>Ifnar2</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,31 +525,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.057567</v>
+        <v>0.9763769999999999</v>
       </c>
       <c r="H2">
-        <v>0.172701</v>
+        <v>2.929131</v>
       </c>
       <c r="I2">
-        <v>0.03117982548787027</v>
+        <v>0.698356587003376</v>
       </c>
       <c r="J2">
-        <v>0.03250051328683672</v>
+        <v>0.6983565870033759</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>26.65724566666666</v>
+        <v>17.95291733333333</v>
       </c>
       <c r="N2">
-        <v>79.97173699999999</v>
+        <v>53.858752</v>
       </c>
       <c r="O2">
-        <v>0.1289633445676506</v>
+        <v>0.07393528283891208</v>
       </c>
       <c r="P2">
-        <v>0.1319729422695888</v>
+        <v>0.07489467518434184</v>
       </c>
       <c r="Q2">
-        <v>1.534577661293</v>
+        <v>17.528815567168</v>
       </c>
       <c r="R2">
-        <v>13.811198951637</v>
+        <v>157.759340104512</v>
       </c>
       <c r="S2">
-        <v>0.004021054577951429</v>
+        <v>0.05163319178251192</v>
       </c>
       <c r="T2">
-        <v>0.004289188363735708</v>
+        <v>0.0523031897464634</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
         <v>25</v>
       </c>
-      <c r="D3" t="s">
-        <v>26</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.057567</v>
+        <v>0.9763769999999999</v>
       </c>
       <c r="H3">
-        <v>0.172701</v>
+        <v>2.929131</v>
       </c>
       <c r="I3">
-        <v>0.03117982548787027</v>
+        <v>0.698356587003376</v>
       </c>
       <c r="J3">
-        <v>0.03250051328683672</v>
+        <v>0.6983565870033759</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>92.525465</v>
       </c>
       <c r="O3">
-        <v>0.1492076309918978</v>
+        <v>0.1270155020409099</v>
       </c>
       <c r="P3">
-        <v>0.1526896664869473</v>
+        <v>0.1286636691369156</v>
       </c>
       <c r="Q3">
-        <v>1.775471147885</v>
+        <v>30.11324531343499</v>
       </c>
       <c r="R3">
-        <v>15.979240330965</v>
+        <v>271.019207820915</v>
       </c>
       <c r="S3">
-        <v>0.004652267895785918</v>
+        <v>0.08870211250181016</v>
       </c>
       <c r="T3">
-        <v>0.004962492534421699</v>
+        <v>0.08985312084978794</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,31 +649,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.057567</v>
+        <v>0.9763769999999999</v>
       </c>
       <c r="H4">
-        <v>0.172701</v>
+        <v>2.929131</v>
       </c>
       <c r="I4">
-        <v>0.03117982548787027</v>
+        <v>0.698356587003376</v>
       </c>
       <c r="J4">
-        <v>0.03250051328683672</v>
+        <v>0.6983565870033759</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>68.43473999999999</v>
+        <v>100.6030296666667</v>
       </c>
       <c r="N4">
-        <v>205.30422</v>
+        <v>301.809089</v>
       </c>
       <c r="O4">
-        <v>0.3310759508081305</v>
+        <v>0.4143122432277931</v>
       </c>
       <c r="P4">
-        <v>0.3388022192610742</v>
+        <v>0.4196884043718117</v>
       </c>
       <c r="Q4">
-        <v>3.939582677579999</v>
+        <v>98.22648429685098</v>
       </c>
       <c r="R4">
-        <v>35.45624409822</v>
+        <v>884.0383586716589</v>
       </c>
       <c r="S4">
-        <v>0.01032289036942823</v>
+        <v>0.2893376841342742</v>
       </c>
       <c r="T4">
-        <v>0.01101124602870431</v>
+        <v>0.2930921616819911</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,31 +711,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.057567</v>
+        <v>0.9763769999999999</v>
       </c>
       <c r="H5">
-        <v>0.172701</v>
+        <v>2.929131</v>
       </c>
       <c r="I5">
-        <v>0.03117982548787027</v>
+        <v>0.698356587003376</v>
       </c>
       <c r="J5">
-        <v>0.03250051328683672</v>
+        <v>0.6983565870033759</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>14.141445</v>
+        <v>9.3314655</v>
       </c>
       <c r="N5">
-        <v>28.28289</v>
+        <v>18.662931</v>
       </c>
       <c r="O5">
-        <v>0.0684139714591724</v>
+        <v>0.03842966177775806</v>
       </c>
       <c r="P5">
-        <v>0.04667369184674745</v>
+        <v>0.02595221952474473</v>
       </c>
       <c r="Q5">
-        <v>0.8140805643150001</v>
+        <v>9.1110282904935</v>
       </c>
       <c r="R5">
-        <v>4.88448338589</v>
+        <v>54.666169742961</v>
       </c>
       <c r="S5">
-        <v>0.002133135691029133</v>
+        <v>0.02683760743880921</v>
       </c>
       <c r="T5">
-        <v>0.001516918942010938</v>
+        <v>0.0181239034524631</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,31 +773,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.057567</v>
+        <v>0.9763769999999999</v>
       </c>
       <c r="H6">
-        <v>0.172701</v>
+        <v>2.929131</v>
       </c>
       <c r="I6">
-        <v>0.03117982548787027</v>
+        <v>0.698356587003376</v>
       </c>
       <c r="J6">
-        <v>0.03250051328683672</v>
+        <v>0.6983565870033759</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>66.628798</v>
+        <v>84.09011600000001</v>
       </c>
       <c r="N6">
-        <v>199.886394</v>
+        <v>252.270348</v>
       </c>
       <c r="O6">
-        <v>0.3223391021731487</v>
+        <v>0.3463073101146269</v>
       </c>
       <c r="P6">
-        <v>0.329861480135642</v>
+        <v>0.3508010317821862</v>
       </c>
       <c r="Q6">
-        <v>3.835620014466</v>
+        <v>82.10365518973201</v>
       </c>
       <c r="R6">
-        <v>34.520580130194</v>
+        <v>738.932896707588</v>
       </c>
       <c r="S6">
-        <v>0.01005047695367556</v>
+        <v>0.2418459911459706</v>
       </c>
       <c r="T6">
-        <v>0.01072066741796406</v>
+        <v>0.2449842112726703</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,31 +835,31 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
       <c r="E7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.9442426666666668</v>
+        <v>0.4217296666666667</v>
       </c>
       <c r="H7">
-        <v>2.832728</v>
+        <v>1.265189</v>
       </c>
       <c r="I7">
-        <v>0.5114270600321006</v>
+        <v>0.3016434129966241</v>
       </c>
       <c r="J7">
-        <v>0.5330896404884421</v>
+        <v>0.301643412996624</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>26.65724566666666</v>
+        <v>17.95291733333333</v>
       </c>
       <c r="N7">
-        <v>79.97173699999999</v>
+        <v>53.858752</v>
       </c>
       <c r="O7">
-        <v>0.1289633445676506</v>
+        <v>0.07393528283891208</v>
       </c>
       <c r="P7">
-        <v>0.1319729422695888</v>
+        <v>0.07489467518434184</v>
       </c>
       <c r="Q7">
-        <v>25.17090873428178</v>
+        <v>7.571277842680889</v>
       </c>
       <c r="R7">
-        <v>226.538178608536</v>
+        <v>68.141500584128</v>
       </c>
       <c r="S7">
-        <v>0.06595534416414033</v>
+        <v>0.02230209105640017</v>
       </c>
       <c r="T7">
-        <v>0.07035340834869704</v>
+        <v>0.02259148543787843</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,31 +897,31 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
         <v>25</v>
       </c>
-      <c r="D8" t="s">
-        <v>26</v>
-      </c>
       <c r="E8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.9442426666666668</v>
+        <v>0.4217296666666667</v>
       </c>
       <c r="H8">
-        <v>2.832728</v>
+        <v>1.265189</v>
       </c>
       <c r="I8">
-        <v>0.5114270600321006</v>
+        <v>0.3016434129966241</v>
       </c>
       <c r="J8">
-        <v>0.5330896404884421</v>
+        <v>0.301643412996624</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>92.525465</v>
       </c>
       <c r="O8">
-        <v>0.1492076309918978</v>
+        <v>0.1270155020409099</v>
       </c>
       <c r="P8">
-        <v>0.1526896664869473</v>
+        <v>0.1286636691369156</v>
       </c>
       <c r="Q8">
-        <v>29.12216393539111</v>
+        <v>13.00691117087611</v>
       </c>
       <c r="R8">
-        <v>262.09947541852</v>
+        <v>117.062200537885</v>
       </c>
       <c r="S8">
-        <v>0.07630882005254083</v>
+        <v>0.03831338953909973</v>
       </c>
       <c r="T8">
-        <v>0.08139727941382685</v>
+        <v>0.03881054828712761</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,31 +959,31 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.9442426666666668</v>
+        <v>0.4217296666666667</v>
       </c>
       <c r="H9">
-        <v>2.832728</v>
+        <v>1.265189</v>
       </c>
       <c r="I9">
-        <v>0.5114270600321006</v>
+        <v>0.3016434129966241</v>
       </c>
       <c r="J9">
-        <v>0.5330896404884421</v>
+        <v>0.301643412996624</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>68.43473999999999</v>
+        <v>100.6030296666667</v>
       </c>
       <c r="N9">
-        <v>205.30422</v>
+        <v>301.809089</v>
       </c>
       <c r="O9">
-        <v>0.3310759508081305</v>
+        <v>0.4143122432277931</v>
       </c>
       <c r="P9">
-        <v>0.3388022192610742</v>
+        <v>0.4196884043718117</v>
       </c>
       <c r="Q9">
-        <v>64.61900139024</v>
+        <v>42.42728216698011</v>
       </c>
       <c r="R9">
-        <v>581.57101251216</v>
+        <v>381.845539502821</v>
       </c>
       <c r="S9">
-        <v>0.1693212001691345</v>
+        <v>0.124974559093519</v>
       </c>
       <c r="T9">
-        <v>0.1806119532625724</v>
+        <v>0.1265962426898205</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,31 +1021,31 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.9442426666666668</v>
+        <v>0.4217296666666667</v>
       </c>
       <c r="H10">
-        <v>2.832728</v>
+        <v>1.265189</v>
       </c>
       <c r="I10">
-        <v>0.5114270600321006</v>
+        <v>0.3016434129966241</v>
       </c>
       <c r="J10">
-        <v>0.5330896404884421</v>
+        <v>0.301643412996624</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>14.141445</v>
+        <v>9.3314655</v>
       </c>
       <c r="N10">
-        <v>28.28289</v>
+        <v>18.662931</v>
       </c>
       <c r="O10">
-        <v>0.0684139714591724</v>
+        <v>0.03842966177775806</v>
       </c>
       <c r="P10">
-        <v>0.04667369184674745</v>
+        <v>0.02595221952474473</v>
       </c>
       <c r="Q10">
-        <v>13.35295573732</v>
+        <v>3.935355834826501</v>
       </c>
       <c r="R10">
-        <v>80.11773442392001</v>
+        <v>23.612135008959</v>
       </c>
       <c r="S10">
-        <v>0.03498875628848458</v>
+        <v>0.01159205433894885</v>
       </c>
       <c r="T10">
-        <v>0.02488126160685093</v>
+        <v>0.007828316072281623</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,31 +1083,31 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.9442426666666668</v>
+        <v>0.4217296666666667</v>
       </c>
       <c r="H11">
-        <v>2.832728</v>
+        <v>1.265189</v>
       </c>
       <c r="I11">
-        <v>0.5114270600321006</v>
+        <v>0.3016434129966241</v>
       </c>
       <c r="J11">
-        <v>0.5330896404884421</v>
+        <v>0.301643412996624</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,648 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>66.628798</v>
+        <v>84.09011600000001</v>
       </c>
       <c r="N11">
-        <v>199.886394</v>
+        <v>252.270348</v>
       </c>
       <c r="O11">
-        <v>0.3223391021731487</v>
+        <v>0.3463073101146269</v>
       </c>
       <c r="P11">
-        <v>0.329861480135642</v>
+        <v>0.3508010317821862</v>
       </c>
       <c r="Q11">
-        <v>62.91375390031467</v>
+        <v>35.46329659064134</v>
       </c>
       <c r="R11">
-        <v>566.223785102832</v>
+        <v>319.1696693157721</v>
       </c>
       <c r="S11">
-        <v>0.1648529393578003</v>
+        <v>0.1044613189686564</v>
       </c>
       <c r="T11">
-        <v>0.1758457378564948</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>0.5</v>
-      </c>
-      <c r="G12">
-        <v>0.225077</v>
-      </c>
-      <c r="H12">
-        <v>0.450154</v>
-      </c>
-      <c r="I12">
-        <v>0.1219077176391575</v>
-      </c>
-      <c r="J12">
-        <v>0.08471425213590367</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>26.65724566666666</v>
-      </c>
-      <c r="N12">
-        <v>79.97173699999999</v>
-      </c>
-      <c r="O12">
-        <v>0.1289633445676506</v>
-      </c>
-      <c r="P12">
-        <v>0.1319729422695888</v>
-      </c>
-      <c r="Q12">
-        <v>5.999932882916333</v>
-      </c>
-      <c r="R12">
-        <v>35.99959729749799</v>
-      </c>
-      <c r="S12">
-        <v>0.01572162699535452</v>
-      </c>
-      <c r="T12">
-        <v>0.01117998910654301</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>0.5</v>
-      </c>
-      <c r="G13">
-        <v>0.225077</v>
-      </c>
-      <c r="H13">
-        <v>0.450154</v>
-      </c>
-      <c r="I13">
-        <v>0.1219077176391575</v>
-      </c>
-      <c r="J13">
-        <v>0.08471425213590367</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>30.84182166666666</v>
-      </c>
-      <c r="N13">
-        <v>92.525465</v>
-      </c>
-      <c r="O13">
-        <v>0.1492076309918978</v>
-      </c>
-      <c r="P13">
-        <v>0.1526896664869473</v>
-      </c>
-      <c r="Q13">
-        <v>6.941784695268333</v>
-      </c>
-      <c r="R13">
-        <v>41.65070817161</v>
-      </c>
-      <c r="S13">
-        <v>0.01818956174856788</v>
-      </c>
-      <c r="T13">
-        <v>0.01293499090532229</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>0.5</v>
-      </c>
-      <c r="G14">
-        <v>0.225077</v>
-      </c>
-      <c r="H14">
-        <v>0.450154</v>
-      </c>
-      <c r="I14">
-        <v>0.1219077176391575</v>
-      </c>
-      <c r="J14">
-        <v>0.08471425213590367</v>
-      </c>
-      <c r="K14">
-        <v>3</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>68.43473999999999</v>
-      </c>
-      <c r="N14">
-        <v>205.30422</v>
-      </c>
-      <c r="O14">
-        <v>0.3310759508081305</v>
-      </c>
-      <c r="P14">
-        <v>0.3388022192610742</v>
-      </c>
-      <c r="Q14">
-        <v>15.40308597498</v>
-      </c>
-      <c r="R14">
-        <v>92.41851584988</v>
-      </c>
-      <c r="S14">
-        <v>0.04036071352823315</v>
-      </c>
-      <c r="T14">
-        <v>0.02870137662668636</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>0.5</v>
-      </c>
-      <c r="G15">
-        <v>0.225077</v>
-      </c>
-      <c r="H15">
-        <v>0.450154</v>
-      </c>
-      <c r="I15">
-        <v>0.1219077176391575</v>
-      </c>
-      <c r="J15">
-        <v>0.08471425213590367</v>
-      </c>
-      <c r="K15">
-        <v>2</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>14.141445</v>
-      </c>
-      <c r="N15">
-        <v>28.28289</v>
-      </c>
-      <c r="O15">
-        <v>0.0684139714591724</v>
-      </c>
-      <c r="P15">
-        <v>0.04667369184674745</v>
-      </c>
-      <c r="Q15">
-        <v>3.182914016265</v>
-      </c>
-      <c r="R15">
-        <v>12.73165606506</v>
-      </c>
-      <c r="S15">
-        <v>0.008340191115218167</v>
-      </c>
-      <c r="T15">
-        <v>0.003953926899218835</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>0.5</v>
-      </c>
-      <c r="G16">
-        <v>0.225077</v>
-      </c>
-      <c r="H16">
-        <v>0.450154</v>
-      </c>
-      <c r="I16">
-        <v>0.1219077176391575</v>
-      </c>
-      <c r="J16">
-        <v>0.08471425213590367</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>66.628798</v>
-      </c>
-      <c r="N16">
-        <v>199.886394</v>
-      </c>
-      <c r="O16">
-        <v>0.3223391021731487</v>
-      </c>
-      <c r="P16">
-        <v>0.329861480135642</v>
-      </c>
-      <c r="Q16">
-        <v>14.996609967446</v>
-      </c>
-      <c r="R16">
-        <v>89.979659804676</v>
-      </c>
-      <c r="S16">
-        <v>0.03929562425178374</v>
-      </c>
-      <c r="T16">
-        <v>0.02794396859813316</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-      <c r="F17">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G17">
-        <v>0.6194033333333332</v>
-      </c>
-      <c r="H17">
-        <v>1.85821</v>
-      </c>
-      <c r="I17">
-        <v>0.3354853968408719</v>
-      </c>
-      <c r="J17">
-        <v>0.3496955940888175</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>26.65724566666666</v>
-      </c>
-      <c r="N17">
-        <v>79.97173699999999</v>
-      </c>
-      <c r="O17">
-        <v>0.1289633445676506</v>
-      </c>
-      <c r="P17">
-        <v>0.1319729422695888</v>
-      </c>
-      <c r="Q17">
-        <v>16.51158682341888</v>
-      </c>
-      <c r="R17">
-        <v>148.60428141077</v>
-      </c>
-      <c r="S17">
-        <v>0.04326531883020437</v>
-      </c>
-      <c r="T17">
-        <v>0.04615035645061308</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18">
-        <v>2</v>
-      </c>
-      <c r="F18">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G18">
-        <v>0.6194033333333332</v>
-      </c>
-      <c r="H18">
-        <v>1.85821</v>
-      </c>
-      <c r="I18">
-        <v>0.3354853968408719</v>
-      </c>
-      <c r="J18">
-        <v>0.3496955940888175</v>
-      </c>
-      <c r="K18">
-        <v>3</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>30.84182166666666</v>
-      </c>
-      <c r="N18">
-        <v>92.525465</v>
-      </c>
-      <c r="O18">
-        <v>0.1492076309918978</v>
-      </c>
-      <c r="P18">
-        <v>0.1526896664869473</v>
-      </c>
-      <c r="Q18">
-        <v>19.10352714640555</v>
-      </c>
-      <c r="R18">
-        <v>171.93174431765</v>
-      </c>
-      <c r="S18">
-        <v>0.0500569812950032</v>
-      </c>
-      <c r="T18">
-        <v>0.05339490363337644</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19">
-        <v>2</v>
-      </c>
-      <c r="F19">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G19">
-        <v>0.6194033333333332</v>
-      </c>
-      <c r="H19">
-        <v>1.85821</v>
-      </c>
-      <c r="I19">
-        <v>0.3354853968408719</v>
-      </c>
-      <c r="J19">
-        <v>0.3496955940888175</v>
-      </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>68.43473999999999</v>
-      </c>
-      <c r="N19">
-        <v>205.30422</v>
-      </c>
-      <c r="O19">
-        <v>0.3310759508081305</v>
-      </c>
-      <c r="P19">
-        <v>0.3388022192610742</v>
-      </c>
-      <c r="Q19">
-        <v>42.38870607179999</v>
-      </c>
-      <c r="R19">
-        <v>381.4983546461999</v>
-      </c>
-      <c r="S19">
-        <v>0.1110711467413346</v>
-      </c>
-      <c r="T19">
-        <v>0.1184776433431111</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" t="s">
-        <v>22</v>
-      </c>
-      <c r="E20">
-        <v>2</v>
-      </c>
-      <c r="F20">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G20">
-        <v>0.6194033333333332</v>
-      </c>
-      <c r="H20">
-        <v>1.85821</v>
-      </c>
-      <c r="I20">
-        <v>0.3354853968408719</v>
-      </c>
-      <c r="J20">
-        <v>0.3496955940888175</v>
-      </c>
-      <c r="K20">
-        <v>2</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>14.141445</v>
-      </c>
-      <c r="N20">
-        <v>28.28289</v>
-      </c>
-      <c r="O20">
-        <v>0.0684139714591724</v>
-      </c>
-      <c r="P20">
-        <v>0.04667369184674745</v>
-      </c>
-      <c r="Q20">
-        <v>8.759258171149998</v>
-      </c>
-      <c r="R20">
-        <v>52.5555490269</v>
-      </c>
-      <c r="S20">
-        <v>0.02295188836444053</v>
-      </c>
-      <c r="T20">
-        <v>0.01632158439866675</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
-        <v>23</v>
-      </c>
-      <c r="E21">
-        <v>2</v>
-      </c>
-      <c r="F21">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G21">
-        <v>0.6194033333333332</v>
-      </c>
-      <c r="H21">
-        <v>1.85821</v>
-      </c>
-      <c r="I21">
-        <v>0.3354853968408719</v>
-      </c>
-      <c r="J21">
-        <v>0.3496955940888175</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>66.628798</v>
-      </c>
-      <c r="N21">
-        <v>199.886394</v>
-      </c>
-      <c r="O21">
-        <v>0.3223391021731487</v>
-      </c>
-      <c r="P21">
-        <v>0.329861480135642</v>
-      </c>
-      <c r="Q21">
-        <v>41.27009957719333</v>
-      </c>
-      <c r="R21">
-        <v>371.4308961947399</v>
-      </c>
-      <c r="S21">
-        <v>0.1081400616098891</v>
-      </c>
-      <c r="T21">
-        <v>0.11535110626305</v>
+        <v>0.1058168205095158</v>
       </c>
     </row>
   </sheetData>
